--- a/biology/Botanique/Parc_de_la_Cure_d'Air_(Nancy)/Parc_de_la_Cure_d'Air_(Nancy).xlsx
+++ b/biology/Botanique/Parc_de_la_Cure_d'Air_(Nancy)/Parc_de_la_Cure_d'Air_(Nancy).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_la_Cure_d%27Air_(Nancy)</t>
+          <t>Parc_de_la_Cure_d'Air_(Nancy)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Cure d'Air (historiquement : Parc de la Cure d'Air Saint-Antoine) est un jardin de la ville de Nancy, dans le département de Meurthe-et-Moselle en région Grand Est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_la_Cure_d%27Air_(Nancy)</t>
+          <t>Parc_de_la_Cure_d'Air_(Nancy)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se situe sur les hauteurs de Nancy, sur la colline du Haut-de-Chèvre, l'entrée est au 54 rue Marquette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se situe sur les hauteurs de Nancy, sur la colline du Haut-de-Chèvre, l'entrée est au 54 rue Marquette.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_la_Cure_d%27Air_(Nancy)</t>
+          <t>Parc_de_la_Cure_d'Air_(Nancy)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_de_la_Cure_d%27Air_(Nancy)</t>
+          <t>Parc_de_la_Cure_d'Air_(Nancy)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,10 +585,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbé Girard construit en 1900 le bâtiment actuel de la Cure d'Air Saint-Antoine avec un parc de jeux, bordé de deux hectares de forêt[2].  
-Après la Première Guerre mondiale, le parc appartenait aux Sœurs de la Visitation et redevient ouvert au public en 1991[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbé Girard construit en 1900 le bâtiment actuel de la Cure d'Air Saint-Antoine avec un parc de jeux, bordé de deux hectares de forêt.  
+Après la Première Guerre mondiale, le parc appartenait aux Sœurs de la Visitation et redevient ouvert au public en 1991.
 </t>
         </is>
       </c>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_de_la_Cure_d%27Air_(Nancy)</t>
+          <t>Parc_de_la_Cure_d'Air_(Nancy)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il comprend de nombreuses variétés de pommiers et de poiriers.
 </t>
